--- a/CustomLocalization-RU/Localization/RogueTech/RU/RogueSociety/LocalizationDef.xlsx
+++ b/CustomLocalization-RU/Localization/RogueTech/RU/RogueSociety/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
   <si>
     <t>chassisdef_adder_ADR-Z.Description.Details</t>
   </si>
@@ -56,7 +56,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Blood Asp Z is a Society configuration of the Smoke Jaguar's terrifying assault mech. The Z configuration mounts a pair of massive Society Heavy Gauss Rifles backed up with a pair of Medium Heavy Lasers. Like most Society designs, the Blood Asp features a series of electronics upgrades including a Nova CEWS.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прочный&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.25&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -112,7 +112,7 @@
   </si>
   <si>
     <t xml:space="preserve">Despite being designed by the Star League before the Exodus, the Dragon Fire was not seen in the Inner Sphere until the 3050s. However, an updated version of the original Star League design was developed as proposed to Clan leadership during the Golden Century but was never adopted in favor of Omnimechs designs. Not willing to give up on the design, several members of the Society continued redesigning the Dragon Fire in secret. By the Wars of Reaving, the Dragon Fire IIC Omnimech is vastly more advanced than it's Inner Sphere cousin.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прочный&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.2&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -164,7 +164,7 @@
   </si>
   <si>
     <t xml:space="preserve">After the Exodus, Pentagon Wars, and countless trials, the ancient Emperor design was well worn and incredibly out-of-date. Rather than spending the time to redesign the Emperor into a IIC version like many other SLDF designs, Society engineers simply designed the 6Z around a new Endo-Steel frame and a Clan-Spec XL engine. The 6Z employs a Light Ultra Gauss Rifle and ER Large Laser in each arm and an Arrow V system in the right torso.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Cooling Jacket - Laser&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучшенное охлаждение - Laser&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.3&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -236,12 +236,12 @@
     <t>chassisdef_helepolis_iic_HEP-IIC-Z.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Despite the design being considered obsolete well before the Exodus, the schematics for the Helepolis seige mech survived the journey to the Pentagon Worlds where it went largely ignored until the Golden Century. A small group of Coyote scientists retooled the arcane design, increasing its tonnage and applying most of the weight saving techologies available, and submitted it to their Khan. Despite being rejected as a dishonorable design the HEP-IIC survived in Society caches and has slowly been upgraded over the years. The Z variant sports a Sniper Artillery Piece and a Society MRM60.
+    <t xml:space="preserve">Despite the design being considered obsolete well before the Exodus, the schematics for the Helepolis seige mech survived the journey to the Pentagon Worlds where it went largely ignored until the Golden Century. A small group of Coyote scientists retooled the arcane design, increasing its tonnage and applying most of the weight saving techologies available, and submitted it to their Khan. Despite being rejected as a dishonorable design the HEP-IIC survived in Society caches and has slowly been upgraded over the years. The Z variant features a pair of Arrow Vs and can only rely on a iATM3 for short-ranged defense
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Stable&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.29&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Despite the design being considered obsolete well before the Exodus, the schematics for the Helepolis seige mech survived the journey to the Pentagon Worlds where it went largely ignored until the Golden Century. A small group of Coyote scientists retooled the arcane design, increasing its tonnage and applying most of the weight saving techologies available, and submitted it to their Khan. Despite being rejected as a dishonorable design the HEP-IIC survived in Society caches and has slowly been upgraded over the years. The Z variant sports a Sniper Artillery Piece and a Society MRM60.
+    <t xml:space="preserve">Despite the design being considered obsolete well before the Exodus, the schematics for the Helepolis seige mech survived the journey to the Pentagon Worlds where it went largely ignored until the Golden Century. A small group of Coyote scientists retooled the arcane design, increasing its tonnage and applying most of the weight saving techologies available, and submitted it to their Khan. Despite being rejected as a dishonorable design the HEP-IIC survived in Society caches and has slowly been upgraded over the years. The Z variant features a pair of Arrow Vs and can only rely on a iATM3 for short-ranged defense
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.29&lt;/color&gt;&lt;/b&gt;</t>
   </si>
@@ -264,12 +264,12 @@
     <t>chassisdef_helepolis_iic_HEP-IIC-ZA.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Despite the design being considered obsolete well before the Exodus, the schematics for the Helepolis seige mech survived the journey to the Pentagon Worlds where it went largely ignored until the Golden Century. A small group of Coyote scientists retooled the arcane design, increasing its tonnage and applying most of the weight saving techologies available, and submitted it to their Khan. Despite being rejected as a dishonorable design the HEP-IIC survived in Society caches and has slowly been upgraded over the years. The ZA variant features a pair of Arrow Vs and can only rely on a iATM3 for short-ranged defense.
+    <t xml:space="preserve">Despite the design being considered obsolete well before the Exodus, the schematics for the Helepolis seige mech survived the journey to the Pentagon Worlds where it went largely ignored until the Golden Century. A small group of Coyote scientists retooled the arcane design, increasing its tonnage and applying most of the weight saving techologies available, and submitted it to their Khan. Despite being rejected as a dishonorable design the HEP-IIC survived in Society caches and has slowly been upgraded over the years. The ZA variant sports a Sniper Artillery Piece and a Society MRM60..
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Stable&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.29&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Despite the design being considered obsolete well before the Exodus, the schematics for the Helepolis seige mech survived the journey to the Pentagon Worlds where it went largely ignored until the Golden Century. A small group of Coyote scientists retooled the arcane design, increasing its tonnage and applying most of the weight saving techologies available, and submitted it to their Khan. Despite being rejected as a dishonorable design the HEP-IIC survived in Society caches and has slowly been upgraded over the years. The ZA variant features a pair of Arrow Vs and can only rely on a iATM3 for short-ranged defense.
+    <t xml:space="preserve">Despite the design being considered obsolete well before the Exodus, the schematics for the Helepolis seige mech survived the journey to the Pentagon Worlds where it went largely ignored until the Golden Century. A small group of Coyote scientists retooled the arcane design, increasing its tonnage and applying most of the weight saving techologies available, and submitted it to their Khan. Despite being rejected as a dishonorable design the HEP-IIC survived in Society caches and has slowly been upgraded over the years. The ZA variant sports a Sniper Artillery Piece and a Society MRM60..
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.29&lt;/color&gt;&lt;/b&gt;</t>
   </si>
@@ -314,14 +314,14 @@
     <t>chassisdef_hyperion_HYP-A.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">null
+    <t xml:space="preserve">Super Heavy mechs were often considered nothing more than a pipe-dream. So when the Wars of Reaving began and the Society's Hyperion strode onto the battlefield, Clan leadership was rightfully troubled. Built using the latest technologies available, the Hyperion can keep pace with many Assault mechs while carrying substantially more armor and more pod-space.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Distracting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.41&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">null
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.35&lt;/color&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Heavy mechs were often considered nothing more than a pipe-dream. So when the Wars of Reaving began and the Society's Hyperion strode onto the battlefield, Clan leadership was rightfully troubled. Built using the latest technologies available, the Hyperion can keep pace with many Assault mechs while carrying substantially more armor and more pod-space.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Distracting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.41&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.35&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_hyperion_HYP-A.StockRole</t>
@@ -336,6 +336,9 @@
     <t>chassisdef_hyperion_HYP-A.YangsThoughts</t>
   </si>
   <si>
+    <t>I'm pretty sure this thing growled at me, boss. The Hyperion A is a hell of a machine, despite being 25 tons heavier, it is just as fast as an Atlas, carries more armor, and that pair of MRM60s will tear most things apart, one missile at a time.</t>
+  </si>
+  <si>
     <t>chassisdef_hyperion_HYP-B.Description.Details</t>
   </si>
   <si>
@@ -345,6 +348,9 @@
     <t>chassisdef_hyperion_HYP-B.YangsThoughts</t>
   </si>
   <si>
+    <t>I'm pretty sure this thing growled at me, boss. The Hyperion Prime is a hell of a machine, despite being 25 tons heavier, it is just as fast as an Atlas, carries more armor, and those Heavy Plasma Cannons will slag almost anything.</t>
+  </si>
+  <si>
     <t>chassisdef_hyperion_HYP-C.Description.Details</t>
   </si>
   <si>
@@ -354,6 +360,9 @@
     <t>chassisdef_hyperion_HYP-C.YangsThoughts</t>
   </si>
   <si>
+    <t>I'm pretty sure this thing growled at me, boss. The Hyperion Prime is a hell of a machine, despite being 25 tons heavier, it is just as fast as an Atlas, carries more armor, and those Arrow V missiles pack a hell of a punch.</t>
+  </si>
+  <si>
     <t>chassisdef_hyperion_HYP-Prime.Description.Details</t>
   </si>
   <si>
@@ -361,6 +370,9 @@
   </si>
   <si>
     <t>chassisdef_hyperion_HYP-Prime.YangsThoughts</t>
+  </si>
+  <si>
+    <t>I'm pretty sure this thing growled at me, boss. The Hyperion Prime is a hell of a machine, despite being 25 tons heavier, it is just as fast as an Atlas, carries more armor, and those Heavy Gauss Rifles are no joke.</t>
   </si>
   <si>
     <t>chassisdef_icarus_iic_ICR-IIC-A.Description.Details</t>
@@ -567,12 +579,12 @@
     <t>chassisdef_mistlynx_MLX-Z-A.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">This Society configuration of the Mist Lynx features the a pair of Medium Supra Lasers in the torsos and a pair of Small Supra Lasers in the arms. These advanced weapons combined with the Nova CEWS makes the Mist Lynx Z an effective skirmisher.
+    <t xml:space="preserve">This Society configuration of the Mist Lynx features the a pair of Medium Supra Lasers in the torsos and a pair of Small Supra Lasers in the arms. These advanced weapons combined with the Nova CEWS makes the Mist Lynx Z-A an effective skirmisher.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Sensors&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.07&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">This Society configuration of the Mist Lynx features the a pair of Medium Supra Lasers in the torsos and a pair of Small Supra Lasers in the arms. These advanced weapons combined with the Nova CEWS makes the Mist Lynx Z an effective skirmisher.
+    <t xml:space="preserve">This Society configuration of the Mist Lynx features the a pair of Medium Supra Lasers in the torsos and a pair of Small Supra Lasers in the arms. These advanced weapons combined with the Nova CEWS makes the Mist Lynx Z-A an effective skirmisher.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Sensors&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.07&lt;/color&gt;&lt;/b&gt;</t>
   </si>
@@ -623,13 +635,13 @@
     <t>chassisdef_rifleman_iic_RFL-IIC-Z.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">The Rifleman IIC S is a Society refit designed to provide direct fire support for Society mech formations. The Z variant sports a Light Ultra Gauss Rifle and a Large Supra Laser in each arm, providing a frightening amount of firepower at range, and a suite of improved electonics including a Nova CEWS.
+    <t xml:space="preserve">The Rifleman IIC Z is a Society refit designed to provide direct fire support for Society mech formations. The S variant sports a Light Ultra Gauss Rifle and a Large Supra Laser in each arm, providing a frightening amount of firepower at range, and a suite of improved electonics including a Nova CEWS.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Integrated Searchlight&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.23&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">The Rifleman IIC S is a Society refit designed to provide direct fire support for Society mech formations. The Z variant sports a Light Ultra Gauss Rifle and a Large Supra Laser in each arm, providing a frightening amount of firepower at range, and a suite of improved electonics including a Nova CEWS.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Integrated Searchlight&lt;/color&gt;&lt;/b&gt;
+    <t xml:space="preserve">The Rifleman IIC Z is a Society refit designed to provide direct fire support for Society mech formations. The S variant sports a Light Ultra Gauss Rifle and a Large Supra Laser in each arm, providing a frightening amount of firepower at range, and a suite of improved electonics including a Nova CEWS.
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Встроенный прожектор&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.23&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -838,7 +850,7 @@
   </si>
   <si>
     <t xml:space="preserve">After the relative success of the VTR-9B refits, the Victor IIC was proposed to Clan leadership as the next stage of the design's evolution. The original proposition featured an Endo-Steel frame and an XL engine which doomed if for rejection due to costs. The VTR-IIC-Z was a small production variantion of these forsaken designs; it featuresa UAC/20 supported by an array of Society prototypes and electronics all focused on close-range brawling.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прочный&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.28&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -860,13 +872,13 @@
     <t>chassisdef_victor_iic_VTR-IIC-ZA.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">After the relative success of the VTR-9B refits, the Victor IIC was proposed to Clan leadership as the next stage of the design's evolution. The original proposition featured an Endo-Steel frame and an XL engine which doomed if for rejection due to costs. The VTR-IIC-Z was a small production variantion of these forsaken designs; it featuresa HVAC/20 supported by an array of Society prototypes and electronics aimed at making it a mid-range fire support platform.
+    <t xml:space="preserve">After the relative success of the VTR-9B refits, the Victor IIC was proposed to Clan leadership as the next stage of the design's evolution. The original proposition featured an Endo-Steel frame and an XL engine which doomed if for rejection due to costs. The VTR-IIC-ZA was a small production variantion of these forsaken designs; it featuresa HVAC/20 supported by an array of Society prototypes and electronics aimed at making it a mid-range fire support platform.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Rugged&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.28&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">After the relative success of the VTR-9B refits, the Victor IIC was proposed to Clan leadership as the next stage of the design's evolution. The original proposition featured an Endo-Steel frame and an XL engine which doomed if for rejection due to costs. The VTR-IIC-Z was a small production variantion of these forsaken designs; it featuresa HVAC/20 supported by an array of Society prototypes and electronics aimed at making it a mid-range fire support platform.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
+    <t xml:space="preserve">After the relative success of the VTR-9B refits, the Victor IIC was proposed to Clan leadership as the next stage of the design's evolution. The original proposition featured an Endo-Steel frame and an XL engine which doomed if for rejection due to costs. The VTR-IIC-ZA was a small production variantion of these forsaken designs; it featuresa HVAC/20 supported by an array of Society prototypes and electronics aimed at making it a mid-range fire support platform.
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прочный&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.28&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -894,7 +906,7 @@
   </si>
   <si>
     <t xml:space="preserve">The original Warhammer was designed as an assault BattleMech. The Clans wisely maintained and built on this solid frame a real assault 'Mech, the Warhammer IIC. The Z is a Society variant that sports a pair of experimental Heavy Plasma Cannons capable of slagging most anything found on the battlefield.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Integrated Searchlight&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Встроенный прожектор&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.28&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -913,16 +925,6 @@
     <t>mechdef_blood_asp_BAS-Z.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">The Z configuration mounts a pair of massive Society Heavy Gauss Rifles backed up with a pair of Medium Heavy Lasers. Like most Society designs, the Blood Asp features a series of electronics upgrades including a Nova CEWS.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.25&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Z configuration mounts a pair of massive Society Heavy Gauss Rifles backed up with a pair of Medium Heavy Lasers. Like most Society designs, the Blood Asp features a series of electronics upgrades including a Nova CEWS.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.25&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>mechdef_commando_iic_COM-IIC-Z.Description.Details</t>
   </si>
   <si>
@@ -947,29 +949,9 @@
     <t>mechdef_helepolis_iic_HEP-IIC-Z.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Despite the design being considered obsolete well before the Exodus, the schematics for the Helepolis seige mech survived the journey to the Pentagon Worlds where it went largely ignored until the Golden Century. A small group of Coyote scientists retooled the arcane design, increasing its tonnage and applying most of the weight saving techologies available, and submitted it to their Khan. Despite being rejected as a dishonorable design the HEP-IIC survived in Society caches and has slowly been upgraded over the years. The Z variant features a pair of Arrow Vs and can only rely on a iATM3 for short-ranged defense
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Stable&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.29&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Despite the design being considered obsolete well before the Exodus, the schematics for the Helepolis seige mech survived the journey to the Pentagon Worlds where it went largely ignored until the Golden Century. A small group of Coyote scientists retooled the arcane design, increasing its tonnage and applying most of the weight saving techologies available, and submitted it to their Khan. Despite being rejected as a dishonorable design the HEP-IIC survived in Society caches and has slowly been upgraded over the years. The Z variant features a pair of Arrow Vs and can only rely on a iATM3 for short-ranged defense
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.29&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>mechdef_helepolis_iic_HEP-IIC-ZA.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Despite the design being considered obsolete well before the Exodus, the schematics for the Helepolis seige mech survived the journey to the Pentagon Worlds where it went largely ignored until the Golden Century. A small group of Coyote scientists retooled the arcane design, increasing its tonnage and applying most of the weight saving techologies available, and submitted it to their Khan. Despite being rejected as a dishonorable design the HEP-IIC survived in Society caches and has slowly been upgraded over the years. The ZA variant sports a Sniper Artillery Piece and a Society MRM60..
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Stable&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.29&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Despite the design being considered obsolete well before the Exodus, the schematics for the Helepolis seige mech survived the journey to the Pentagon Worlds where it went largely ignored until the Golden Century. A small group of Coyote scientists retooled the arcane design, increasing its tonnage and applying most of the weight saving techologies available, and submitted it to their Khan. Despite being rejected as a dishonorable design the HEP-IIC survived in Society caches and has slowly been upgraded over the years. The ZA variant sports a Sniper Artillery Piece and a Society MRM60..
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.29&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>mechdef_highlander_iic_HGN-IIC-Z.Description.Details</t>
   </si>
   <si>
@@ -1003,16 +985,6 @@
     <t>mechdef_incubus_Vixen-Z.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">As a Second-Line mech, the Incubus was a prime candidate for Society engineers to refit into a light mech capable of being integrated into Society formations easily. The Incubus 1S drops the Large Pulse Laser for a Large Supra Laser and drops the ER Medium for a Nova CEWS.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Accurate Weapon - Laser&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.13&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a Second-Line mech, the Incubus was a prime candidate for Society engineers to refit into a light mech capable of being integrated into Society formations easily. The Incubus 1S drops the Large Pulse Laser for a Large Supra Laser and drops the ER Medium for a Nova CEWS.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Точное оружие - лазеры&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.13&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>mechdef_kit_fox_KF-Z.Description.Details</t>
   </si>
   <si>
@@ -1028,32 +1000,12 @@
     <t>mechdef_mistlynx_MLX-Z-A.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">This Society configuration of the Mist Lynx features the a pair of Medium Supra Lasers in the torsos and a pair of Small Supra Lasers in the arms. These advanced weapons combined with the Nova CEWS makes the Mist Lynx Z-A an effective skirmisher.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Sensors&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.07&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This Society configuration of the Mist Lynx features the a pair of Medium Supra Lasers in the torsos and a pair of Small Supra Lasers in the arms. These advanced weapons combined with the Nova CEWS makes the Mist Lynx Z-A an effective skirmisher.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Sensors&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.07&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>mechdef_rabid_coyote_RB-Z.Description.Details</t>
   </si>
   <si>
     <t>mechdef_rifleman_iic_RFL-IIC-Z.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">The Rifleman IIC Z is a Society refit designed to provide direct fire support for Society mech formations. The S variant sports a Light Ultra Gauss Rifle and a Large Supra Laser in each arm, providing a frightening amount of firepower at range, and a suite of improved electonics including a Nova CEWS.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Integrated Searchlight&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.23&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Rifleman IIC Z is a Society refit designed to provide direct fire support for Society mech formations. The S variant sports a Light Ultra Gauss Rifle and a Large Supra Laser in each arm, providing a frightening amount of firepower at range, and a suite of improved electonics including a Nova CEWS.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Integrated Searchlight&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.23&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>mechdef_shadow_cat_SHC-Z.Description.Details</t>
   </si>
   <si>
@@ -1079,16 +1031,6 @@
   </si>
   <si>
     <t>mechdef_victor_iic_VTR-IIC-ZA.Description.Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After the relative success of the VTR-9B refits, the Victor IIC was proposed to Clan leadership as the next stage of the design's evolution. The original proposition featured an Endo-Steel frame and an XL engine which doomed if for rejection due to costs. The VTR-IIC-ZA was a small production variantion of these forsaken designs; it featuresa HVAC/20 supported by an array of Society prototypes and electronics aimed at making it a mid-range fire support platform.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.28&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After the relative success of the VTR-9B refits, the Victor IIC was proposed to Clan leadership as the next stage of the design's evolution. The original proposition featured an Endo-Steel frame and an XL engine which doomed if for rejection due to costs. The VTR-IIC-ZA was a small production variantion of these forsaken designs; it featuresa HVAC/20 supported by an array of Society prototypes and electronics aimed at making it a mid-range fire support platform.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.28&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_warhammer_iic_WMR-IIC-Z.Description.Details</t>
@@ -2094,10 +2036,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2124,13 +2071,21 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2421,13 +2376,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="C274" sqref="C274"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="C276" sqref="C276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="78.85546875" customWidth="1" style="2"/>
+    <col min="4" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2437,7 +2393,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2454,7 +2410,7 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2471,7 +2427,7 @@
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2488,7 +2444,7 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2505,7 +2461,7 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2522,7 +2478,7 @@
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2539,7 +2495,7 @@
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2556,7 +2512,7 @@
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2573,7 +2529,7 @@
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -2590,7 +2546,7 @@
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2607,7 +2563,7 @@
       <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -2624,7 +2580,7 @@
       <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2641,7 +2597,7 @@
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2658,7 +2614,7 @@
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2675,7 +2631,7 @@
       <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2692,7 +2648,7 @@
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -2709,7 +2665,7 @@
       <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -2726,7 +2682,7 @@
       <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2743,7 +2699,7 @@
       <c r="B19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -2760,7 +2716,7 @@
       <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -2777,7 +2733,7 @@
       <c r="B21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2794,7 +2750,7 @@
       <c r="B22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2811,7 +2767,7 @@
       <c r="B23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -2828,7 +2784,7 @@
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -2845,7 +2801,7 @@
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2862,7 +2818,7 @@
       <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2879,7 +2835,7 @@
       <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2893,7 +2849,7 @@
       <c r="A28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -2913,7 +2869,7 @@
       <c r="B29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -2930,7 +2886,7 @@
       <c r="B30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2944,7 +2900,7 @@
       <c r="A31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -2964,7 +2920,7 @@
       <c r="B32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -2981,7 +2937,7 @@
       <c r="B33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -2998,7 +2954,7 @@
       <c r="B34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -3015,7 +2971,7 @@
       <c r="B35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -3032,7 +2988,7 @@
       <c r="B36" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -3046,7 +3002,7 @@
       <c r="A37" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -3066,7 +3022,7 @@
       <c r="B38" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -3080,10 +3036,12 @@
       <c r="A39" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="D39" s="2" t="s">
         <v>3</v>
       </c>
@@ -3093,9 +3051,9 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -3110,12 +3068,12 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -3127,12 +3085,14 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="D42" s="2" t="s">
         <v>3</v>
       </c>
@@ -3142,9 +3102,9 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -3159,12 +3119,12 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -3176,12 +3136,14 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="D45" s="2" t="s">
         <v>3</v>
       </c>
@@ -3191,9 +3153,9 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -3208,12 +3170,12 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -3225,12 +3187,14 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="D48" s="2" t="s">
         <v>3</v>
       </c>
@@ -3240,13 +3204,13 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>3</v>
@@ -3257,12 +3221,12 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -3274,13 +3238,13 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>3</v>
@@ -3291,13 +3255,13 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>3</v>
@@ -3308,12 +3272,12 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -3325,13 +3289,13 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>108</v>
+      <c r="C54" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>3</v>
@@ -3342,13 +3306,13 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>3</v>
@@ -3359,12 +3323,12 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -3376,13 +3340,13 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>3</v>
@@ -3393,13 +3357,13 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>3</v>
@@ -3410,12 +3374,12 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -3427,13 +3391,13 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>3</v>
@@ -3444,13 +3408,13 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>3</v>
@@ -3461,12 +3425,12 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -3478,13 +3442,13 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>3</v>
@@ -3495,13 +3459,13 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>3</v>
@@ -3512,13 +3476,13 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>3</v>
@@ -3529,13 +3493,13 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>3</v>
@@ -3546,13 +3510,13 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>3</v>
@@ -3563,13 +3527,13 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>3</v>
@@ -3580,13 +3544,13 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>3</v>
@@ -3597,13 +3561,13 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>3</v>
@@ -3614,13 +3578,13 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>3</v>
@@ -3631,13 +3595,13 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>3</v>
@@ -3648,13 +3612,13 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>3</v>
@@ -3665,13 +3629,13 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>3</v>
@@ -3682,13 +3646,13 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>3</v>
@@ -3699,13 +3663,13 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>3</v>
@@ -3716,13 +3680,13 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>3</v>
@@ -3733,13 +3697,13 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>3</v>
@@ -3750,13 +3714,13 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>3</v>
@@ -3767,13 +3731,13 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>3</v>
@@ -3784,13 +3748,13 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>3</v>
@@ -3801,13 +3765,13 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>3</v>
@@ -3818,13 +3782,13 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>3</v>
@@ -3835,13 +3799,13 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>3</v>
@@ -3852,13 +3816,13 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>3</v>
@@ -3869,13 +3833,13 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>3</v>
@@ -3886,13 +3850,13 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>3</v>
@@ -3903,13 +3867,13 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>3</v>
@@ -3920,13 +3884,13 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>3</v>
@@ -3937,13 +3901,13 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>3</v>
@@ -3954,13 +3918,13 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>3</v>
@@ -3971,12 +3935,12 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -3988,13 +3952,13 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>3</v>
@@ -4005,13 +3969,13 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>3</v>
@@ -4022,13 +3986,13 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>3</v>
@@ -4039,13 +4003,13 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>3</v>
@@ -4056,13 +4020,13 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>3</v>
@@ -4073,13 +4037,13 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>3</v>
@@ -4090,13 +4054,13 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>3</v>
@@ -4107,13 +4071,13 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>3</v>
@@ -4124,13 +4088,13 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>216</v>
+        <v>220</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>3</v>
@@ -4141,13 +4105,13 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>3</v>
@@ -4158,13 +4122,13 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>3</v>
@@ -4175,13 +4139,13 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>3</v>
@@ -4192,13 +4156,13 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>3</v>
@@ -4209,13 +4173,13 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>3</v>
@@ -4226,13 +4190,13 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>3</v>
@@ -4243,13 +4207,13 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>234</v>
+        <v>238</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>3</v>
@@ -4260,13 +4224,13 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>3</v>
@@ -4277,13 +4241,13 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>240</v>
+        <v>243</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>3</v>
@@ -4294,13 +4258,13 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>242</v>
+        <v>246</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>3</v>
@@ -4311,13 +4275,13 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>3</v>
@@ -4328,13 +4292,13 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>3</v>
@@ -4345,13 +4309,13 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>250</v>
+        <v>254</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>3</v>
@@ -4362,13 +4326,13 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>3</v>
@@ -4379,13 +4343,13 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>3</v>
@@ -4396,13 +4360,13 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>3</v>
@@ -4413,12 +4377,12 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D118" s="2" t="s">
@@ -4430,13 +4394,13 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>3</v>
@@ -4447,12 +4411,12 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
@@ -4464,12 +4428,12 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D121" s="2" t="s">
@@ -4481,12 +4445,12 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D122" s="2" t="s">
@@ -4498,12 +4462,12 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D123" s="2" t="s">
@@ -4515,12 +4479,12 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D124" s="2" t="s">
@@ -4532,12 +4496,12 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D125" s="2" t="s">
@@ -4549,12 +4513,12 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D126" s="2" t="s">
@@ -4566,13 +4530,13 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>270</v>
+        <v>64</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>3</v>
@@ -4586,10 +4550,10 @@
         <v>271</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>273</v>
+        <v>72</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>3</v>
@@ -4600,12 +4564,12 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D129" s="2" t="s">
@@ -4617,9 +4581,9 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B130" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C130" s="3" t="s">
@@ -4634,9 +4598,9 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B131" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C131" s="3" t="s">
@@ -4651,9 +4615,9 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B132" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C132" s="3" t="s">
@@ -4668,9 +4632,9 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B133" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C133" s="3" t="s">
@@ -4685,13 +4649,13 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>3</v>
@@ -4702,13 +4666,13 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>3</v>
@@ -4719,13 +4683,13 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>3</v>
@@ -4736,13 +4700,13 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>3</v>
@@ -4753,13 +4717,13 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>3</v>
@@ -4770,13 +4734,13 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>286</v>
+        <v>127</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>3</v>
@@ -4787,13 +4751,13 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>3</v>
@@ -4804,13 +4768,13 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>3</v>
@@ -4821,13 +4785,13 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>3</v>
@@ -4838,13 +4802,13 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>3</v>
@@ -4855,13 +4819,13 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>293</v>
+        <v>165</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>3</v>
@@ -4872,13 +4836,13 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>3</v>
@@ -4889,13 +4853,13 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>297</v>
+        <v>181</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>3</v>
@@ -4906,13 +4870,13 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>3</v>
@@ -4923,13 +4887,13 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>3</v>
@@ -4940,13 +4904,13 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>3</v>
@@ -4957,13 +4921,13 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>3</v>
@@ -4974,13 +4938,13 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>3</v>
@@ -4991,13 +4955,13 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>3</v>
@@ -5008,13 +4972,13 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>3</v>
@@ -5025,13 +4989,13 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>3</v>
@@ -5042,13 +5006,13 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>308</v>
+        <v>248</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>3</v>
@@ -5059,13 +5023,13 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>3</v>
@@ -5076,13 +5040,13 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>312</v>
+        <v>301</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>3</v>
@@ -5093,13 +5057,13 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>3</v>
@@ -5110,13 +5074,13 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>318</v>
+        <v>307</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>3</v>
@@ -5127,13 +5091,13 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>3</v>
@@ -5144,13 +5108,13 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>322</v>
+        <v>311</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>3</v>
@@ -5161,13 +5125,13 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>3</v>
@@ -5178,13 +5142,13 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>326</v>
+        <v>315</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>3</v>
@@ -5195,13 +5159,13 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>3</v>
@@ -5212,13 +5176,13 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>330</v>
+        <v>319</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>3</v>
@@ -5229,13 +5193,13 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>3</v>
@@ -5246,13 +5210,13 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>334</v>
+        <v>323</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>3</v>
@@ -5263,13 +5227,13 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>3</v>
@@ -5280,13 +5244,13 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>338</v>
+        <v>327</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>3</v>
@@ -5297,13 +5261,13 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>3</v>
@@ -5314,13 +5278,13 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>342</v>
+        <v>331</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>3</v>
@@ -5331,13 +5295,13 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>3</v>
@@ -5348,13 +5312,13 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>342</v>
+        <v>331</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>3</v>
@@ -5365,13 +5329,13 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>3</v>
@@ -5382,13 +5346,13 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>3</v>
@@ -5399,13 +5363,13 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>3</v>
@@ -5416,13 +5380,13 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>352</v>
+        <v>341</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>3</v>
@@ -5433,13 +5397,13 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>3</v>
@@ -5450,13 +5414,13 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>356</v>
+        <v>345</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>3</v>
@@ -5467,13 +5431,13 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>3</v>
@@ -5484,13 +5448,13 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>360</v>
+        <v>349</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>3</v>
@@ -5501,13 +5465,13 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>3</v>
@@ -5518,13 +5482,13 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>364</v>
+        <v>353</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>3</v>
@@ -5535,13 +5499,13 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>3</v>
@@ -5552,13 +5516,13 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>368</v>
+        <v>357</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>3</v>
@@ -5569,13 +5533,13 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>3</v>
@@ -5586,13 +5550,13 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>372</v>
+        <v>361</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>3</v>
@@ -5603,13 +5567,13 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>3</v>
@@ -5620,13 +5584,13 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>312</v>
+        <v>301</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>3</v>
@@ -5637,13 +5601,13 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>318</v>
+        <v>307</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>3</v>
@@ -5654,13 +5618,13 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>322</v>
+        <v>311</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>3</v>
@@ -5671,13 +5635,13 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>326</v>
+        <v>315</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>3</v>
@@ -5688,13 +5652,13 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>330</v>
+        <v>319</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>3</v>
@@ -5705,13 +5669,13 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>334</v>
+        <v>323</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>3</v>
@@ -5722,13 +5686,13 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>338</v>
+        <v>327</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>3</v>
@@ -5739,13 +5703,13 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>342</v>
+        <v>331</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>3</v>
@@ -5756,13 +5720,13 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>342</v>
+        <v>331</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>3</v>
@@ -5773,13 +5737,13 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>3</v>
@@ -5790,13 +5754,13 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>352</v>
+        <v>341</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>3</v>
@@ -5807,13 +5771,13 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>356</v>
+        <v>345</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>3</v>
@@ -5824,13 +5788,13 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>360</v>
+        <v>349</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>3</v>
@@ -5841,13 +5805,13 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>364</v>
+        <v>353</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>3</v>
@@ -5858,13 +5822,13 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>368</v>
+        <v>357</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>3</v>
@@ -5875,13 +5839,13 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>372</v>
+        <v>361</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>3</v>
@@ -5892,13 +5856,13 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>392</v>
+        <v>381</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>3</v>
@@ -5909,13 +5873,13 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>394</v>
+        <v>384</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>3</v>
@@ -5926,13 +5890,13 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>394</v>
+        <v>384</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>3</v>
@@ -5943,13 +5907,13 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>398</v>
+        <v>387</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>3</v>
@@ -5960,13 +5924,13 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>400</v>
+        <v>390</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>3</v>
@@ -5977,13 +5941,13 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>400</v>
+        <v>390</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>3</v>
@@ -5994,13 +5958,13 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>3</v>
@@ -6011,13 +5975,13 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>406</v>
+        <v>396</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>3</v>
@@ -6028,13 +5992,13 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>406</v>
+        <v>396</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>3</v>
@@ -6045,13 +6009,13 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>410</v>
+        <v>399</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>3</v>
@@ -6062,13 +6026,13 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>412</v>
+        <v>402</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>3</v>
@@ -6079,13 +6043,13 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>412</v>
+        <v>402</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>3</v>
@@ -6096,13 +6060,13 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>416</v>
+        <v>405</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>406</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>3</v>
@@ -6113,13 +6077,13 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>418</v>
+        <v>408</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>3</v>
@@ -6130,13 +6094,13 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>418</v>
+        <v>408</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>3</v>
@@ -6147,13 +6111,13 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>422</v>
+        <v>411</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>3</v>
@@ -6164,13 +6128,13 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>424</v>
+        <v>414</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>3</v>
@@ -6181,13 +6145,13 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>424</v>
+        <v>414</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>3</v>
@@ -6198,13 +6162,13 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>3</v>
@@ -6215,13 +6179,13 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>429</v>
+        <v>419</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>3</v>
@@ -6232,13 +6196,13 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>432</v>
+        <v>421</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>3</v>
@@ -6249,13 +6213,13 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>434</v>
+        <v>424</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>424</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>3</v>
@@ -6266,13 +6230,13 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>434</v>
+        <v>424</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>424</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>3</v>
@@ -6283,13 +6247,13 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>438</v>
+        <v>427</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>428</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>3</v>
@@ -6300,13 +6264,13 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>440</v>
+        <v>430</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>430</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>3</v>
@@ -6317,13 +6281,13 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>440</v>
+        <v>430</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>430</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>3</v>
@@ -6334,13 +6298,13 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>444</v>
+        <v>433</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>3</v>
@@ -6351,13 +6315,13 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>446</v>
+        <v>436</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>3</v>
@@ -6368,13 +6332,13 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>446</v>
+        <v>436</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>3</v>
@@ -6385,13 +6349,13 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>444</v>
+        <v>433</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>3</v>
@@ -6402,13 +6366,13 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>450</v>
+        <v>440</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>440</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>3</v>
@@ -6419,13 +6383,13 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>450</v>
+        <v>440</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>440</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>3</v>
@@ -6436,13 +6400,13 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>444</v>
+        <v>433</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>3</v>
@@ -6453,13 +6417,13 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>454</v>
+        <v>444</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>3</v>
@@ -6470,13 +6434,13 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>454</v>
+        <v>444</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>3</v>
@@ -6487,13 +6451,13 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>458</v>
+        <v>447</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>3</v>
@@ -6504,13 +6468,13 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>460</v>
+        <v>450</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>450</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>3</v>
@@ -6521,13 +6485,13 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>462</v>
+        <v>452</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>452</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>3</v>
@@ -6538,13 +6502,13 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>458</v>
+        <v>447</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>3</v>
@@ -6555,13 +6519,13 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>465</v>
+        <v>455</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>455</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>3</v>
@@ -6572,13 +6536,13 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C245" s="3" t="s">
-        <v>467</v>
+        <v>457</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>457</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>3</v>
@@ -6589,13 +6553,13 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C246" s="3" t="s">
-        <v>458</v>
+        <v>447</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>3</v>
@@ -6606,13 +6570,13 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>470</v>
+        <v>460</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>460</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>3</v>
@@ -6623,13 +6587,13 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>472</v>
+        <v>462</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>3</v>
@@ -6640,13 +6604,13 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>458</v>
+        <v>447</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>3</v>
@@ -6657,13 +6621,13 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>460</v>
+        <v>450</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>450</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>3</v>
@@ -6674,13 +6638,13 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>476</v>
+        <v>466</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>466</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>3</v>
@@ -6691,13 +6655,13 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>478</v>
+        <v>468</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>468</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>3</v>
@@ -6708,13 +6672,13 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>480</v>
+        <v>470</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>3</v>
@@ -6725,13 +6689,13 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>482</v>
+        <v>472</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>3</v>
@@ -6742,13 +6706,13 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>484</v>
+        <v>474</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>474</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>3</v>
@@ -6759,13 +6723,13 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>486</v>
+        <v>476</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>476</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>3</v>
@@ -6776,13 +6740,13 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>488</v>
+        <v>478</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>478</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>3</v>
@@ -6793,13 +6757,13 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>490</v>
+        <v>480</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>480</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>3</v>
@@ -6810,13 +6774,13 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>492</v>
+        <v>482</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>482</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>3</v>
@@ -6827,13 +6791,13 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>495</v>
+        <v>484</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>485</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>3</v>
@@ -6844,13 +6808,13 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>497</v>
+        <v>487</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>487</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>3</v>
@@ -6861,13 +6825,13 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>499</v>
+        <v>489</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>489</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>3</v>
@@ -6878,13 +6842,13 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>484</v>
+        <v>474</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>474</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>3</v>
@@ -6895,13 +6859,13 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>486</v>
+        <v>476</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>476</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>3</v>
@@ -6912,13 +6876,13 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>503</v>
+        <v>493</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>493</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>3</v>
@@ -6929,13 +6893,13 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>505</v>
+        <v>495</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>3</v>
@@ -6946,13 +6910,13 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>505</v>
+        <v>495</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>3</v>
@@ -6963,13 +6927,13 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>508</v>
+        <v>498</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>3</v>
@@ -6980,13 +6944,13 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>511</v>
+        <v>500</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>3</v>
